--- a/CollectionSoftware/PADMA STORE.xlsx
+++ b/CollectionSoftware/PADMA STORE.xlsx
@@ -413,35 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>5564</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5564</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CollectionSoftware/PADMA STORE.xlsx
+++ b/CollectionSoftware/PADMA STORE.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +413,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18824</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>